--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H2">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I2">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J2">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>15.5344217614791</v>
+        <v>10.577143</v>
       </c>
       <c r="N2">
-        <v>15.5344217614791</v>
+        <v>31.731429</v>
       </c>
       <c r="O2">
-        <v>0.6327927213870082</v>
+        <v>0.2954534031561419</v>
       </c>
       <c r="P2">
-        <v>0.6327927213870082</v>
+        <v>0.2954534031561419</v>
       </c>
       <c r="Q2">
-        <v>264.521661119299</v>
+        <v>857.3660307740536</v>
       </c>
       <c r="R2">
-        <v>264.521661119299</v>
+        <v>7716.294276966481</v>
       </c>
       <c r="S2">
-        <v>0.06789300430014944</v>
+        <v>0.1047623665412957</v>
       </c>
       <c r="T2">
-        <v>0.06789300430014944</v>
+        <v>0.1047623665412957</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H3">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I3">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J3">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.014567562275211</v>
+        <v>16.17621166666667</v>
       </c>
       <c r="N3">
-        <v>9.014567562275211</v>
+        <v>48.528635</v>
       </c>
       <c r="O3">
-        <v>0.3672072786129918</v>
+        <v>0.4518532827901404</v>
       </c>
       <c r="P3">
-        <v>0.3672072786129918</v>
+        <v>0.4518532827901404</v>
       </c>
       <c r="Q3">
-        <v>153.5009427745925</v>
+        <v>1311.217442140183</v>
       </c>
       <c r="R3">
-        <v>153.5009427745925</v>
+        <v>11800.95697926164</v>
       </c>
       <c r="S3">
-        <v>0.03939805959093935</v>
+        <v>0.1602188999310038</v>
       </c>
       <c r="T3">
-        <v>0.03939805959093935</v>
+        <v>0.1602188999310038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>122.863246657766</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H4">
-        <v>122.863246657766</v>
+        <v>243.175127</v>
       </c>
       <c r="I4">
-        <v>0.7741397893222943</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J4">
-        <v>0.7741397893222943</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.5344217614791</v>
+        <v>9.046344666666666</v>
       </c>
       <c r="N4">
-        <v>15.5344217614791</v>
+        <v>27.139034</v>
       </c>
       <c r="O4">
-        <v>0.6327927213870082</v>
+        <v>0.2526933140537176</v>
       </c>
       <c r="P4">
-        <v>0.6327927213870082</v>
+        <v>0.2526933140537176</v>
       </c>
       <c r="Q4">
-        <v>1908.609492566374</v>
+        <v>733.2820044008131</v>
       </c>
       <c r="R4">
-        <v>1908.609492566374</v>
+        <v>6599.538039607317</v>
       </c>
       <c r="S4">
-        <v>0.4898700240192198</v>
+        <v>0.08960042195025904</v>
       </c>
       <c r="T4">
-        <v>0.4898700240192198</v>
+        <v>0.08960042195025904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H5">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I5">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J5">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>9.014567562275211</v>
+        <v>10.577143</v>
       </c>
       <c r="N5">
-        <v>9.014567562275211</v>
+        <v>31.731429</v>
       </c>
       <c r="O5">
-        <v>0.3672072786129918</v>
+        <v>0.2954534031561419</v>
       </c>
       <c r="P5">
-        <v>0.3672072786129918</v>
+        <v>0.2954534031561419</v>
       </c>
       <c r="Q5">
-        <v>1107.559037916915</v>
+        <v>1301.181643014036</v>
       </c>
       <c r="R5">
-        <v>1107.559037916915</v>
+        <v>11710.63478712632</v>
       </c>
       <c r="S5">
-        <v>0.2842697653030745</v>
+        <v>0.1589926161398918</v>
       </c>
       <c r="T5">
-        <v>0.2842697653030745</v>
+        <v>0.1589926161398918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.237343966245174</v>
+        <v>123.018252</v>
       </c>
       <c r="H6">
-        <v>0.237343966245174</v>
+        <v>369.054756</v>
       </c>
       <c r="I6">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J6">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.5344217614791</v>
+        <v>16.17621166666667</v>
       </c>
       <c r="N6">
-        <v>15.5344217614791</v>
+        <v>48.528635</v>
       </c>
       <c r="O6">
-        <v>0.6327927213870082</v>
+        <v>0.4518532827901404</v>
       </c>
       <c r="P6">
-        <v>0.6327927213870082</v>
+        <v>0.4518532827901404</v>
       </c>
       <c r="Q6">
-        <v>3.687001274194792</v>
+        <v>1989.96928321534</v>
       </c>
       <c r="R6">
-        <v>3.687001274194792</v>
+        <v>17909.72354893806</v>
       </c>
       <c r="S6">
-        <v>0.0009463179397269425</v>
+        <v>0.2431562296279793</v>
       </c>
       <c r="T6">
-        <v>0.0009463179397269425</v>
+        <v>0.2431562296279793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.237343966245174</v>
+        <v>123.018252</v>
       </c>
       <c r="H7">
-        <v>0.237343966245174</v>
+        <v>369.054756</v>
       </c>
       <c r="I7">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J7">
-        <v>0.001495462744344978</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.014567562275211</v>
+        <v>9.046344666666666</v>
       </c>
       <c r="N7">
-        <v>9.014567562275211</v>
+        <v>27.139034</v>
       </c>
       <c r="O7">
-        <v>0.3672072786129918</v>
+        <v>0.2526933140537176</v>
       </c>
       <c r="P7">
-        <v>0.3672072786129918</v>
+        <v>0.2526933140537176</v>
       </c>
       <c r="Q7">
-        <v>2.139553219215488</v>
+        <v>1112.865507882856</v>
       </c>
       <c r="R7">
-        <v>2.139553219215488</v>
+        <v>10015.7895709457</v>
       </c>
       <c r="S7">
-        <v>0.0005491448046180358</v>
+        <v>0.1359820894032057</v>
       </c>
       <c r="T7">
-        <v>0.0005491448046180358</v>
+        <v>0.1359820894032057</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.5806919086426</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H8">
-        <v>18.5806919086426</v>
+        <v>1.0874</v>
       </c>
       <c r="I8">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J8">
-        <v>0.1170736840422721</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>15.5344217614791</v>
+        <v>10.577143</v>
       </c>
       <c r="N8">
-        <v>15.5344217614791</v>
+        <v>31.731429</v>
       </c>
       <c r="O8">
-        <v>0.6327927213870082</v>
+        <v>0.2954534031561419</v>
       </c>
       <c r="P8">
-        <v>0.6327927213870082</v>
+        <v>0.2954534031561419</v>
       </c>
       <c r="Q8">
-        <v>288.6403047289562</v>
+        <v>3.833861766066666</v>
       </c>
       <c r="R8">
-        <v>288.6403047289562</v>
+        <v>34.5047558946</v>
       </c>
       <c r="S8">
-        <v>0.0740833751279121</v>
+        <v>0.0004684631968013938</v>
       </c>
       <c r="T8">
-        <v>0.0740833751279121</v>
+        <v>0.0004684631968013938</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3624666666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.0874</v>
+      </c>
+      <c r="I9">
+        <v>0.001585573873230423</v>
+      </c>
+      <c r="J9">
+        <v>0.001585573873230423</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>16.17621166666667</v>
+      </c>
+      <c r="N9">
+        <v>48.528635</v>
+      </c>
+      <c r="O9">
+        <v>0.4518532827901404</v>
+      </c>
+      <c r="P9">
+        <v>0.4518532827901404</v>
+      </c>
+      <c r="Q9">
+        <v>5.863337522111111</v>
+      </c>
+      <c r="R9">
+        <v>52.770037699</v>
+      </c>
+      <c r="S9">
+        <v>0.0007164467597254447</v>
+      </c>
+      <c r="T9">
+        <v>0.0007164467597254447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>18.5806919086426</v>
-      </c>
-      <c r="H9">
-        <v>18.5806919086426</v>
-      </c>
-      <c r="I9">
-        <v>0.1170736840422721</v>
-      </c>
-      <c r="J9">
-        <v>0.1170736840422721</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>9.014567562275211</v>
-      </c>
-      <c r="N9">
-        <v>9.014567562275211</v>
-      </c>
-      <c r="O9">
-        <v>0.3672072786129918</v>
-      </c>
-      <c r="P9">
-        <v>0.3672072786129918</v>
-      </c>
-      <c r="Q9">
-        <v>167.4969025642791</v>
-      </c>
-      <c r="R9">
-        <v>167.4969025642791</v>
-      </c>
-      <c r="S9">
-        <v>0.04299030891435998</v>
-      </c>
-      <c r="T9">
-        <v>0.04299030891435998</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3624666666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.0874</v>
+      </c>
+      <c r="I10">
+        <v>0.001585573873230423</v>
+      </c>
+      <c r="J10">
+        <v>0.001585573873230423</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.046344666666666</v>
+      </c>
+      <c r="N10">
+        <v>27.139034</v>
+      </c>
+      <c r="O10">
+        <v>0.2526933140537176</v>
+      </c>
+      <c r="P10">
+        <v>0.2526933140537176</v>
+      </c>
+      <c r="Q10">
+        <v>3.278998396844444</v>
+      </c>
+      <c r="R10">
+        <v>29.5109855716</v>
+      </c>
+      <c r="S10">
+        <v>0.0004006639167035848</v>
+      </c>
+      <c r="T10">
+        <v>0.0004006639167035848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H11">
+        <v>72.491192</v>
+      </c>
+      <c r="I11">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J11">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>10.577143</v>
+      </c>
+      <c r="N11">
+        <v>31.731429</v>
+      </c>
+      <c r="O11">
+        <v>0.2954534031561419</v>
+      </c>
+      <c r="P11">
+        <v>0.2954534031561419</v>
+      </c>
+      <c r="Q11">
+        <v>255.5832346748186</v>
+      </c>
+      <c r="R11">
+        <v>2300.249112073368</v>
+      </c>
+      <c r="S11">
+        <v>0.03122995727815304</v>
+      </c>
+      <c r="T11">
+        <v>0.03122995727815305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H12">
+        <v>72.491192</v>
+      </c>
+      <c r="I12">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J12">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>16.17621166666667</v>
+      </c>
+      <c r="N12">
+        <v>48.528635</v>
+      </c>
+      <c r="O12">
+        <v>0.4518532827901404</v>
+      </c>
+      <c r="P12">
+        <v>0.4518532827901404</v>
+      </c>
+      <c r="Q12">
+        <v>390.8776219203244</v>
+      </c>
+      <c r="R12">
+        <v>3517.89859728292</v>
+      </c>
+      <c r="S12">
+        <v>0.04776170647143193</v>
+      </c>
+      <c r="T12">
+        <v>0.04776170647143194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>24.16373066666667</v>
+      </c>
+      <c r="H13">
+        <v>72.491192</v>
+      </c>
+      <c r="I13">
+        <v>0.1057018025331343</v>
+      </c>
+      <c r="J13">
+        <v>0.1057018025331344</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.046344666666666</v>
+      </c>
+      <c r="N13">
+        <v>27.139034</v>
+      </c>
+      <c r="O13">
+        <v>0.2526933140537176</v>
+      </c>
+      <c r="P13">
+        <v>0.2526933140537176</v>
+      </c>
+      <c r="Q13">
+        <v>218.5934360431698</v>
+      </c>
+      <c r="R13">
+        <v>1967.340924388528</v>
+      </c>
+      <c r="S13">
+        <v>0.02671013878354936</v>
+      </c>
+      <c r="T13">
+        <v>0.02671013878354937</v>
       </c>
     </row>
   </sheetData>
